--- a/RESSOURCES/RECETTE/RECETTES.xlsx
+++ b/RESSOURCES/RECETTE/RECETTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\econte\Desktop\Edouard\Divisio\RESSOURCES\RECETTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\_apps\DIVISIO\RESSOURCES\RECETTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7D9E2-08A3-49A5-9945-78CE31D5A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE1948-3D8C-4FD5-8E8A-E06B0660A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23625" yWindow="3375" windowWidth="30180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductionRecipe" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>recipe_code</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Recette de la Base Blanche de Yaourt Brassé Vache Nature</t>
+  </si>
+  <si>
+    <t>REC_VACHE_BRASSE_SUCRE</t>
+  </si>
+  <si>
+    <t>Base Yaourt Brassé Vache Sucré</t>
+  </si>
+  <si>
+    <t>BASE_VACHE_BRASSE_SUCRE</t>
+  </si>
+  <si>
+    <t>Recette de la Base Blanche de Yaourt Brassé Vache Sucré</t>
   </si>
 </sst>
 </file>
@@ -389,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +458,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/RESSOURCES/RECETTE/RECETTES.xlsx
+++ b/RESSOURCES/RECETTE/RECETTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\_apps\DIVISIO\RESSOURCES\RECETTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE1948-3D8C-4FD5-8E8A-E06B0660A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C594D06-1A34-4443-8E04-DC395A279BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23625" yWindow="3375" windowWidth="30180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="285" windowWidth="30180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductionRecipe" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>recipe_code</t>
   </si>
@@ -48,9 +57,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>REC_VACHE_BRASSE_NATURE</t>
-  </si>
-  <si>
     <t>Base Yaourt Brassé Vache Nature</t>
   </si>
   <si>
@@ -60,9 +66,6 @@
     <t>Recette de la Base Blanche de Yaourt Brassé Vache Nature</t>
   </si>
   <si>
-    <t>REC_VACHE_BRASSE_SUCRE</t>
-  </si>
-  <si>
     <t>Base Yaourt Brassé Vache Sucré</t>
   </si>
   <si>
@@ -70,6 +73,18 @@
   </si>
   <si>
     <t>Recette de la Base Blanche de Yaourt Brassé Vache Sucré</t>
+  </si>
+  <si>
+    <t>YAOURT BRASSE AU LAIT DE VACHE NATURE X 25 CANTINE BIOCHAMPS</t>
+  </si>
+  <si>
+    <t>recipe_type</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>CONDITIONNEMENT</t>
   </si>
 </sst>
 </file>
@@ -401,22 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,20 +449,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"REC_"&amp;LEFT(F2,4)&amp;"_"&amp;C2</f>
+        <v>REC_PROC_BASE_VACHE_BRASSE_NATURE</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -455,18 +475,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A4" si="0">"REC_"&amp;LEFT(F3,4)&amp;"_"&amp;C3</f>
+        <v>REC_PROC_BASE_VACHE_BRASSE_SUCRE</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -475,11 +499,53 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>REC_COND_1025700</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1025700</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>